--- a/src/controllers/hopdonggvmList.xlsx
+++ b/src/controllers/hopdonggvmList.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="40">
   <si>
     <t>Ngày Bắt Đầu</t>
   </si>
@@ -85,40 +85,52 @@
     <t>Ngày Nghiệm Thu</t>
   </si>
   <si>
+    <t>Bà</t>
+  </si>
+  <si>
+    <t>Nguyễn Hoàng Ca</t>
+  </si>
+  <si>
+    <t>035078000201</t>
+  </si>
+  <si>
+    <t>CCSĐKQLCTVDLQGVDC</t>
+  </si>
+  <si>
+    <t>huudq@tmu.edu.vn</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>22010000163 915</t>
+  </si>
+  <si>
+    <t>BIDV, chi nhánh Thăng Long</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Đồng</t>
+  </si>
+  <si>
     <t>Ông</t>
   </si>
   <si>
-    <t>Nguyễn Văn A</t>
-  </si>
-  <si>
-    <t>0342567484</t>
-  </si>
-  <si>
-    <t>Hà Nội</t>
-  </si>
-  <si>
-    <t>GV3@gmail.com</t>
-  </si>
-  <si>
-    <t>Tiến Sĩ</t>
-  </si>
-  <si>
-    <t>Giảng Viên</t>
-  </si>
-  <si>
-    <t>0364837342</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MB bank </t>
-  </si>
-  <si>
-    <t>Mười Ba  Triệu Không Trăm Nghìn Không Trăm Đồng</t>
-  </si>
-  <si>
-    <t>Một  Triệu Ba Trăm Không Mươi Nghìn Không Trăm Đồng</t>
-  </si>
-  <si>
-    <t>Mười Một  Triệu Bảy Trăm Không Mươi Nghìn Không Trăm Đồng</t>
+    <t>Nguyễn Văn Toản</t>
+  </si>
+  <si>
+    <t>035078000573</t>
+  </si>
+  <si>
+    <t>Nguyễn Hoàng Minh</t>
+  </si>
+  <si>
+    <t>035078000253</t>
+  </si>
+  <si>
+    <t>Đoàn Minh Phương</t>
+  </si>
+  <si>
+    <t>035078000508</t>
   </si>
 </sst>
 </file>
@@ -510,7 +522,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:X2"/>
+  <dimension ref="A1:X5"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
     <col min="1" max="2" width="15" customWidth="1"/>
@@ -611,10 +623,10 @@
     </row>
     <row r="2" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
-        <v>45211.70006944444</v>
+        <v>-32.279212962963356</v>
       </c>
       <c r="B2" s="2">
-        <v>45953.70006944444</v>
+        <v>-32.279212962963356</v>
       </c>
       <c r="C2" s="3">
         <v>1</v>
@@ -626,7 +638,7 @@
         <v>25</v>
       </c>
       <c r="F2" s="2">
-        <v>45583.491736111115</v>
+        <v>28532.708333333332</v>
       </c>
       <c r="G2" s="3" t="s">
         <v>26</v>
@@ -638,49 +650,271 @@
         <v>28</v>
       </c>
       <c r="J2" s="3">
-        <v>456789</v>
+        <v>2147483647</v>
       </c>
       <c r="K2" s="3" t="s">
         <v>29</v>
       </c>
       <c r="L2" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="M2" s="3">
         <v>4</v>
       </c>
       <c r="N2" s="3">
-        <v>347234345</v>
+        <v>988710727</v>
       </c>
       <c r="O2" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="P2" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="P2" s="3" t="s">
-        <v>32</v>
-      </c>
       <c r="Q2" s="3">
-        <v>130</v>
+        <v>0</v>
       </c>
       <c r="R2" s="3">
-        <v>13000000</v>
+        <v>0</v>
       </c>
       <c r="S2" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="T2" s="3">
+        <v>0</v>
+      </c>
+      <c r="U2" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="V2" s="3">
+        <v>0</v>
+      </c>
+      <c r="W2" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="X2" s="2">
+        <v>NaN</v>
+      </c>
+    </row>
+    <row r="3" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A3" s="2">
+        <v>-32.279212962963356</v>
+      </c>
+      <c r="B3" s="2">
+        <v>-32.279212962963356</v>
+      </c>
+      <c r="C3" s="3">
+        <v>1</v>
+      </c>
+      <c r="D3" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="T2" s="3">
-        <v>1300000</v>
-      </c>
-      <c r="U2" s="3" t="s">
+      <c r="E3" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="V2" s="3">
-        <v>11700000</v>
-      </c>
-      <c r="W2" s="3" t="s">
+      <c r="F3" s="2">
+        <v>28532.708333333332</v>
+      </c>
+      <c r="G3" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="X2" s="2">
-        <v>45937.70833333333</v>
+      <c r="H3" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="J3" s="3">
+        <v>2147483647</v>
+      </c>
+      <c r="K3" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="L3" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="M3" s="3">
+        <v>4</v>
+      </c>
+      <c r="N3" s="3">
+        <v>988710727</v>
+      </c>
+      <c r="O3" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="P3" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q3" s="3">
+        <v>0</v>
+      </c>
+      <c r="R3" s="3">
+        <v>0</v>
+      </c>
+      <c r="S3" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="T3" s="3">
+        <v>0</v>
+      </c>
+      <c r="U3" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="V3" s="3">
+        <v>0</v>
+      </c>
+      <c r="W3" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="X3" s="2">
+        <v>NaN</v>
+      </c>
+    </row>
+    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A4" s="2">
+        <v>-32.279212962963356</v>
+      </c>
+      <c r="B4" s="2">
+        <v>-32.279212962963356</v>
+      </c>
+      <c r="C4" s="3">
+        <v>1</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="F4" s="2">
+        <v>28531.708333333332</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="J4" s="3">
+        <v>2147483647</v>
+      </c>
+      <c r="K4" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="L4" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="M4" s="3">
+        <v>4</v>
+      </c>
+      <c r="N4" s="3">
+        <v>988710727</v>
+      </c>
+      <c r="O4" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="P4" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q4" s="3">
+        <v>0</v>
+      </c>
+      <c r="R4" s="3">
+        <v>0</v>
+      </c>
+      <c r="S4" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="T4" s="3">
+        <v>0</v>
+      </c>
+      <c r="U4" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="V4" s="3">
+        <v>0</v>
+      </c>
+      <c r="W4" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="X4" s="2">
+        <v>NaN</v>
+      </c>
+    </row>
+    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A5" s="2">
+        <v>-32.279212962963356</v>
+      </c>
+      <c r="B5" s="2">
+        <v>-32.279212962963356</v>
+      </c>
+      <c r="C5" s="3">
+        <v>1</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="F5" s="2">
+        <v>28532.708333333332</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="J5" s="3">
+        <v>2147483647</v>
+      </c>
+      <c r="K5" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="L5" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="M5" s="3">
+        <v>4</v>
+      </c>
+      <c r="N5" s="3">
+        <v>988710727</v>
+      </c>
+      <c r="O5" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="P5" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q5" s="3">
+        <v>0</v>
+      </c>
+      <c r="R5" s="3">
+        <v>0</v>
+      </c>
+      <c r="S5" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="T5" s="3">
+        <v>0</v>
+      </c>
+      <c r="U5" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="V5" s="3">
+        <v>0</v>
+      </c>
+      <c r="W5" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="X5" s="2">
+        <v>NaN</v>
       </c>
     </row>
   </sheetData>
